--- a/client/excel/member.xlsx
+++ b/client/excel/member.xlsx
@@ -25,124 +25,124 @@
     <t>오디오</t>
   </si>
   <si>
-    <t>12:39:58.804</t>
-  </si>
-  <si>
-    <t>12:39:58.806</t>
-  </si>
-  <si>
-    <t>12:39:58.894</t>
-  </si>
-  <si>
-    <t>12:39:58.896</t>
-  </si>
-  <si>
-    <t>12:39:58.999</t>
-  </si>
-  <si>
-    <t>12:39:59.0</t>
-  </si>
-  <si>
-    <t>12:39:59.104</t>
-  </si>
-  <si>
-    <t>12:39:59.105</t>
-  </si>
-  <si>
-    <t>12:39:59.194</t>
-  </si>
-  <si>
-    <t>12:39:59.196</t>
-  </si>
-  <si>
-    <t>12:39:59.299</t>
-  </si>
-  <si>
-    <t>12:39:59.301</t>
-  </si>
-  <si>
-    <t>12:39:59.397</t>
-  </si>
-  <si>
-    <t>12:39:59.399</t>
-  </si>
-  <si>
-    <t>12:39:59.494</t>
-  </si>
-  <si>
-    <t>12:39:59.496</t>
-  </si>
-  <si>
-    <t>12:39:59.597</t>
-  </si>
-  <si>
-    <t>12:39:59.599</t>
-  </si>
-  <si>
-    <t>12:39:59.697</t>
-  </si>
-  <si>
-    <t>12:39:59.699</t>
-  </si>
-  <si>
-    <t>12:39:59.794</t>
-  </si>
-  <si>
-    <t>12:39:59.796</t>
-  </si>
-  <si>
-    <t>12:39:59.897</t>
-  </si>
-  <si>
-    <t>12:39:59.899</t>
-  </si>
-  <si>
-    <t>12:39:59.997</t>
-  </si>
-  <si>
-    <t>12:39:59.998</t>
-  </si>
-  <si>
-    <t>12:40:0.94</t>
-  </si>
-  <si>
-    <t>12:40:0.96</t>
-  </si>
-  <si>
-    <t>12:40:0.197</t>
-  </si>
-  <si>
-    <t>12:40:0.199</t>
-  </si>
-  <si>
-    <t>12:40:0.297</t>
-  </si>
-  <si>
-    <t>12:40:0.299</t>
-  </si>
-  <si>
-    <t>12:40:0.394</t>
-  </si>
-  <si>
-    <t>12:40:0.396</t>
-  </si>
-  <si>
-    <t>12:40:0.497</t>
-  </si>
-  <si>
-    <t>12:40:0.498</t>
-  </si>
-  <si>
-    <t>12:40:0.597</t>
-  </si>
-  <si>
-    <t>12:40:0.599</t>
-  </si>
-  <si>
-    <t>12:40:0.694</t>
-  </si>
-  <si>
-    <t>12:40:0.696</t>
+    <t>14:6:12.417</t>
+  </si>
+  <si>
+    <t>14:6:12.422</t>
+  </si>
+  <si>
+    <t>14:6:12.517</t>
+  </si>
+  <si>
+    <t>14:6:12.521</t>
+  </si>
+  <si>
+    <t>14:6:12.617</t>
+  </si>
+  <si>
+    <t>14:6:12.621</t>
+  </si>
+  <si>
+    <t>14:6:12.717</t>
+  </si>
+  <si>
+    <t>14:6:12.722</t>
+  </si>
+  <si>
+    <t>14:6:12.817</t>
+  </si>
+  <si>
+    <t>14:6:12.821</t>
+  </si>
+  <si>
+    <t>14:6:12.917</t>
+  </si>
+  <si>
+    <t>14:6:12.921</t>
+  </si>
+  <si>
+    <t>14:6:13.17</t>
+  </si>
+  <si>
+    <t>14:6:13.21</t>
+  </si>
+  <si>
+    <t>14:6:13.117</t>
+  </si>
+  <si>
+    <t>14:6:13.121</t>
+  </si>
+  <si>
+    <t>14:6:13.217</t>
+  </si>
+  <si>
+    <t>14:6:13.222</t>
+  </si>
+  <si>
+    <t>14:6:13.317</t>
+  </si>
+  <si>
+    <t>14:6:13.321</t>
+  </si>
+  <si>
+    <t>14:6:13.417</t>
+  </si>
+  <si>
+    <t>14:6:13.422</t>
+  </si>
+  <si>
+    <t>14:6:13.517</t>
+  </si>
+  <si>
+    <t>14:6:13.521</t>
+  </si>
+  <si>
+    <t>14:6:13.617</t>
+  </si>
+  <si>
+    <t>14:6:13.622</t>
+  </si>
+  <si>
+    <t>14:6:13.717</t>
+  </si>
+  <si>
+    <t>14:6:13.721</t>
+  </si>
+  <si>
+    <t>14:6:13.817</t>
+  </si>
+  <si>
+    <t>14:6:13.821</t>
+  </si>
+  <si>
+    <t>14:6:13.917</t>
+  </si>
+  <si>
+    <t>14:6:13.921</t>
+  </si>
+  <si>
+    <t>14:6:14.17</t>
+  </si>
+  <si>
+    <t>14:6:14.21</t>
+  </si>
+  <si>
+    <t>14:6:14.117</t>
+  </si>
+  <si>
+    <t>14:6:14.121</t>
+  </si>
+  <si>
+    <t>14:6:14.216</t>
+  </si>
+  <si>
+    <t>14:6:14.220</t>
+  </si>
+  <si>
+    <t>14:6:14.317</t>
+  </si>
+  <si>
+    <t>14:6:14.321</t>
   </si>
 </sst>
 </file>
@@ -215,7 +215,7 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -229,7 +229,7 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -243,7 +243,7 @@
         <v>9</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -257,7 +257,7 @@
         <v>11</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -271,7 +271,7 @@
         <v>13</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -285,7 +285,7 @@
         <v>15</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -299,7 +299,7 @@
         <v>17</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -313,7 +313,7 @@
         <v>19</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -327,7 +327,7 @@
         <v>21</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -341,7 +341,7 @@
         <v>23</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -355,7 +355,7 @@
         <v>25</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -369,7 +369,7 @@
         <v>27</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -383,7 +383,7 @@
         <v>29</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -397,7 +397,7 @@
         <v>31</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -411,7 +411,7 @@
         <v>33</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -425,7 +425,7 @@
         <v>35</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -439,7 +439,7 @@
         <v>37</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -453,7 +453,7 @@
         <v>39</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -467,7 +467,7 @@
         <v>41</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -481,7 +481,7 @@
         <v>43</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
